--- a/bioSample/bioSample_2641.xlsx
+++ b/bioSample/bioSample_2641.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD15AC9-291D-D848-BBBB-8F26210B1FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="9780" yWindow="800" windowWidth="21720" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="36">
   <si>
     <t>harvestDate</t>
   </si>
@@ -37,12 +43,6 @@
     <t>genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
-  </si>
-  <si>
-    <t>inductionDelay</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -58,9 +58,6 @@
     <t>12.19.17</t>
   </si>
   <si>
-    <t>Retrofitted_2641</t>
-  </si>
-  <si>
     <t>CNAG_00000</t>
   </si>
   <si>
@@ -128,13 +125,16 @@
   </si>
   <si>
     <t>37C.CO2</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -243,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +283,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +335,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,14 +528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,1022 +568,1016 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3">
-        <v>90</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>90</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10">
-        <v>90</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12">
-        <v>90</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14">
+        <v>90</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>90</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>90</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>90</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18">
-        <v>90</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19">
-        <v>90</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19">
+        <v>90</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20">
-        <v>90</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21">
-        <v>90</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22">
-        <v>90</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23">
-        <v>90</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23">
+        <v>90</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24">
-        <v>90</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25">
-        <v>90</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25">
+        <v>90</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26">
-        <v>90</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26">
+        <v>90</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27">
-        <v>90</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27">
+        <v>90</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28">
-        <v>90</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>90</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29">
-        <v>90</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>90</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30">
-        <v>90</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30">
+        <v>90</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31">
-        <v>90</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31">
+        <v>90</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32">
-        <v>90</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32">
+        <v>90</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33">
-        <v>90</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33">
+        <v>90</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34">
-        <v>90</v>
-      </c>
-      <c r="L34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <v>90</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35">
-        <v>90</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>90</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36">
-        <v>90</v>
-      </c>
-      <c r="L36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>90</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37">
-        <v>90</v>
-      </c>
-      <c r="L37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
-        <v>37</v>
-      </c>
-      <c r="K38">
-        <v>90</v>
-      </c>
-      <c r="L38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38">
+        <v>90</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39">
-        <v>90</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39">
+        <v>90</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" t="s">
-        <v>37</v>
-      </c>
-      <c r="K40">
-        <v>90</v>
-      </c>
-      <c r="L40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40">
+        <v>90</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" t="s">
-        <v>37</v>
-      </c>
-      <c r="K41">
-        <v>90</v>
-      </c>
-      <c r="L41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41">
+        <v>90</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42">
-        <v>90</v>
-      </c>
-      <c r="L42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42">
+        <v>90</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
-      </c>
-      <c r="J43" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43">
-        <v>90</v>
-      </c>
-      <c r="L43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43">
+        <v>90</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
-      </c>
-      <c r="J44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K44">
-        <v>90</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>32</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44">
+        <v>90</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="J45" t="s">
-        <v>37</v>
-      </c>
-      <c r="K45">
-        <v>90</v>
-      </c>
-      <c r="L45">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45">
+        <v>90</v>
+      </c>
+      <c r="J45">
         <v>2</v>
       </c>
     </row>

--- a/bioSample/bioSample_2641.xlsx
+++ b/bioSample/bioSample_2641.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_2641.xlsx
+++ b/bioSample/bioSample_2641.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="58">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">marker_1</t>
   </si>
   <si>
-    <t xml:space="preserve">marker_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.15.17</t>
   </si>
   <si>
@@ -121,67 +118,67 @@
     <t xml:space="preserve">CNAG_05861</t>
   </si>
   <si>
+    <t xml:space="preserve">TDY2193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNAG_03346</t>
+  </si>
+  <si>
     <t xml:space="preserve">TDY2194</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_03346</t>
+    <t xml:space="preserve">CNAG_02476</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2195</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_02476</t>
+    <t xml:space="preserve">CNAG_02435</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2196</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_02435</t>
+    <t xml:space="preserve">CNAG_01883</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2197</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_01883</t>
+    <t xml:space="preserve">CNAG_00039</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2198</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_00039</t>
+    <t xml:space="preserve">CNAG_01977</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2199</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_01977</t>
+    <t xml:space="preserve">CNAG_02700</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2200</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_02700</t>
+    <t xml:space="preserve">CNAG_04637</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2201</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_04637</t>
+    <t xml:space="preserve">CNAG_07443</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2202</t>
   </si>
   <si>
-    <t xml:space="preserve">CNAG_07443</t>
+    <t xml:space="preserve">CNAG_07901</t>
   </si>
   <si>
     <t xml:space="preserve">TDY2203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNAG_07901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDY2204</t>
   </si>
   <si>
     <t xml:space="preserve">CNAG_07922</t>
@@ -211,6 +208,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -292,10 +290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,9 +301,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="9.07"/>
@@ -343,31 +341,28 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>90</v>
@@ -378,25 +373,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>90</v>
@@ -405,30 +400,30 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>90</v>
@@ -439,25 +434,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>90</v>
@@ -468,25 +463,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>90</v>
@@ -497,25 +492,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>90</v>
@@ -526,22 +521,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>90</v>
@@ -552,25 +547,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>90</v>
@@ -581,25 +576,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>90</v>
@@ -610,341 +605,374 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>90</v>
@@ -955,25 +983,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>90</v>
@@ -984,25 +1012,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>90</v>
@@ -1013,25 +1041,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="G25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>90</v>
@@ -1040,30 +1068,30 @@
         <v>2</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>90</v>
@@ -1074,25 +1102,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>90</v>
@@ -1103,25 +1131,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>90</v>
@@ -1132,25 +1160,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>90</v>
@@ -1161,22 +1189,22 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>90</v>
@@ -1187,25 +1215,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>90</v>
@@ -1216,25 +1244,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>90</v>
@@ -1245,341 +1273,374 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G38" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="G39" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="G40" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="G41" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="G42" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="G43" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>90</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>90</v>
@@ -1590,25 +1651,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="G45" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>90</v>

--- a/bioSample/bioSample_2641.xlsx
+++ b/bioSample/bioSample_2641.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="58">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -293,7 +293,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,6 +431,9 @@
       <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J4" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -460,6 +463,9 @@
       <c r="I5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J5" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -489,6 +495,9 @@
       <c r="I6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -518,6 +527,9 @@
       <c r="I7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J7" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -544,6 +556,9 @@
       <c r="I8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J8" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -573,6 +588,9 @@
       <c r="I9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J9" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -602,6 +620,9 @@
       <c r="I10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J10" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -980,6 +1001,9 @@
       <c r="I22" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J22" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1009,6 +1033,9 @@
       <c r="I23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J23" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1099,6 +1126,9 @@
       <c r="I26" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J26" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1128,6 +1158,9 @@
       <c r="I27" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J27" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1157,6 +1190,9 @@
       <c r="I28" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J28" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1186,6 +1222,9 @@
       <c r="I29" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J29" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1212,6 +1251,9 @@
       <c r="I30" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J30" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1241,6 +1283,9 @@
       <c r="I31" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J31" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1270,6 +1315,9 @@
       <c r="I32" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J32" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1648,6 +1696,9 @@
       <c r="I44" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J44" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1676,6 +1727,9 @@
       </c>
       <c r="I45" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
